--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -102,12 +102,30 @@
   <si>
     <t>Static part of logging message. Calling Get Transaction Data.</t>
   </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>SHA1_Online_URL</t>
+  </si>
+  <si>
+    <t>System1_URL</t>
+  </si>
+  <si>
+    <t>System1_Credential</t>
+  </si>
+  <si>
+    <t>ACME_Credential</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -131,6 +149,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,10 +173,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -161,8 +186,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -534,9 +561,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1529,8 +1577,12 @@
     <row r="995" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1538,7 +1590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1587,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
